--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -523,16 +523,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02311489471971595</v>
+        <v>0.02242931537559456</v>
       </c>
       <c r="D2">
-        <v>0.0001896919984778478</v>
+        <v>0.00783345273120517</v>
       </c>
       <c r="E2">
-        <v>1.452270027413327E-05</v>
+        <v>0.003518479473069824</v>
       </c>
       <c r="F2">
-        <v>3.1943336864515E-12</v>
+        <v>3.636635927950493E-07</v>
       </c>
       <c r="G2">
-        <v>0.0003079178903577784</v>
+        <v>0.003703522545972948</v>
       </c>
       <c r="H2">
-        <v>0.004777052768843992</v>
+        <v>0.01820238026848409</v>
       </c>
       <c r="I2">
-        <v>0.002613782796189401</v>
+        <v>0.02441417733121787</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.661584286300922E-10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02311489471971595</v>
+        <v>0.02242931537559456</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0007136512113150584</v>
+        <v>0.005191625890059726</v>
       </c>
       <c r="E3">
-        <v>2.325088698440503E-05</v>
+        <v>0.002468448345302354</v>
       </c>
       <c r="F3">
-        <v>8.134759532651969E-11</v>
+        <v>6.31289682306857E-07</v>
       </c>
       <c r="G3">
-        <v>1.279544592502901E-07</v>
+        <v>0.0001670144785241856</v>
       </c>
       <c r="H3">
-        <v>1.417993721553046E-06</v>
+        <v>0.0005751431850828936</v>
       </c>
       <c r="I3">
-        <v>0.01748310392892005</v>
+        <v>0.06538983234925433</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.841640587396114E-10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0001896919984778478</v>
+        <v>0.00783345273120517</v>
       </c>
       <c r="C4">
-        <v>0.0007136512113150584</v>
+        <v>0.005191625890059726</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0008798148185218402</v>
+        <v>0.01518547225210143</v>
       </c>
       <c r="F4">
-        <v>0.001392372828253885</v>
+        <v>0.0130729465972379</v>
       </c>
       <c r="G4">
-        <v>0.08935080236388027</v>
+        <v>0.1707566629146371</v>
       </c>
       <c r="H4">
-        <v>0.5216943355774202</v>
+        <v>0.5848326098805563</v>
       </c>
       <c r="I4">
-        <v>0.0002007106642647472</v>
+        <v>0.004547430365912764</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3.257989211746803E-09</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.452270027413327E-05</v>
+        <v>0.003518479473069824</v>
       </c>
       <c r="C5">
-        <v>2.325088698440503E-05</v>
+        <v>0.002468448345302354</v>
       </c>
       <c r="D5">
-        <v>0.0008798148185218402</v>
+        <v>0.01518547225210143</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.541582856212641</v>
+        <v>0.5840467020102458</v>
       </c>
       <c r="G5">
-        <v>0.8429406165223194</v>
+        <v>0.8728760011712222</v>
       </c>
       <c r="H5">
-        <v>0.3602295504573061</v>
+        <v>0.4503888688957607</v>
       </c>
       <c r="I5">
-        <v>6.873864604184377E-07</v>
+        <v>0.001294854920740995</v>
       </c>
       <c r="J5">
-        <v>7.371880883511039E-12</v>
+        <v>1.488508269975597E-06</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.1943336864515E-12</v>
+        <v>3.636635927950493E-07</v>
       </c>
       <c r="C6">
-        <v>8.134759532651969E-11</v>
+        <v>6.31289682306857E-07</v>
       </c>
       <c r="D6">
-        <v>0.001392372828253885</v>
+        <v>0.0130729465972379</v>
       </c>
       <c r="E6">
-        <v>0.541582856212641</v>
+        <v>0.5840467020102458</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4342290622793166</v>
+        <v>0.503298118186376</v>
       </c>
       <c r="H6">
-        <v>0.3649398586798929</v>
+        <v>0.451477748550682</v>
       </c>
       <c r="I6">
-        <v>2.637303619934528E-08</v>
+        <v>7.069170197704366E-05</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.378089287129569E-08</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0003079178903577784</v>
+        <v>0.003703522545972948</v>
       </c>
       <c r="C7">
-        <v>1.279544592502901E-07</v>
+        <v>0.0001670144785241856</v>
       </c>
       <c r="D7">
-        <v>0.08935080236388027</v>
+        <v>0.1707566629146371</v>
       </c>
       <c r="E7">
-        <v>0.8429406165223194</v>
+        <v>0.8728760011712222</v>
       </c>
       <c r="F7">
-        <v>0.4342290622793166</v>
+        <v>0.503298118186376</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.008616999994414565</v>
+        <v>0.01644583639629782</v>
       </c>
       <c r="I7">
-        <v>8.055611222523851E-08</v>
+        <v>7.649788151153913E-05</v>
       </c>
       <c r="J7">
-        <v>4.567879408057252E-11</v>
+        <v>0.0001439719312719134</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004777052768843992</v>
+        <v>0.01820238026848409</v>
       </c>
       <c r="C8">
-        <v>1.417993721553046E-06</v>
+        <v>0.0005751431850828936</v>
       </c>
       <c r="D8">
-        <v>0.5216943355774202</v>
+        <v>0.5848326098805563</v>
       </c>
       <c r="E8">
-        <v>0.3602295504573061</v>
+        <v>0.4503888688957607</v>
       </c>
       <c r="F8">
-        <v>0.3649398586798929</v>
+        <v>0.451477748550682</v>
       </c>
       <c r="G8">
-        <v>0.008616999994414565</v>
+        <v>0.01644583639629782</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>4.621658619585745E-06</v>
+        <v>0.0002585239466481593</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.806944250012606E-07</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002613782796189401</v>
+        <v>0.02441417733121787</v>
       </c>
       <c r="C9">
-        <v>0.01748310392892005</v>
+        <v>0.06538983234925433</v>
       </c>
       <c r="D9">
-        <v>0.0002007106642647472</v>
+        <v>0.004547430365912764</v>
       </c>
       <c r="E9">
-        <v>6.873864604184377E-07</v>
+        <v>0.001294854920740995</v>
       </c>
       <c r="F9">
-        <v>2.637303619934528E-08</v>
+        <v>7.069170197704366E-05</v>
       </c>
       <c r="G9">
-        <v>8.055611222523851E-08</v>
+        <v>7.649788151153913E-05</v>
       </c>
       <c r="H9">
-        <v>4.621658619585745E-06</v>
+        <v>0.0002585239466481593</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.50769631726655E-08</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.661584286300922E-10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6.841640587396114E-10</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.257989211746803E-09</v>
       </c>
       <c r="E10">
-        <v>7.371880883511039E-12</v>
+        <v>1.488508269975597E-06</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.378089287129569E-08</v>
       </c>
       <c r="G10">
-        <v>4.567879408057252E-11</v>
+        <v>0.0001439719312719134</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.806944250012606E-07</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.50769631726655E-08</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.278855770730928</v>
+        <v>2.565571627230308</v>
       </c>
       <c r="D2">
-        <v>-3.76165122901603</v>
+        <v>-3.099931797441746</v>
       </c>
       <c r="E2">
-        <v>-4.381020963601494</v>
+        <v>-3.502386793273629</v>
       </c>
       <c r="F2">
-        <v>-7.15322470315918</v>
+        <v>-8.947360284054245</v>
       </c>
       <c r="G2">
-        <v>-3.635128345868443</v>
+        <v>-3.476598781546006</v>
       </c>
       <c r="H2">
-        <v>-2.834951183195449</v>
+        <v>-2.672733267079237</v>
       </c>
       <c r="I2">
-        <v>3.025726774868389</v>
+        <v>2.521827826554322</v>
       </c>
       <c r="J2">
-        <v>-12.49115040982984</v>
+        <v>-15.75122974710012</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.278855770730928</v>
+        <v>-2.565571627230308</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.40640689518978</v>
+        <v>-3.306794187443672</v>
       </c>
       <c r="E3">
-        <v>-4.273249685475306</v>
+        <v>-3.681005498625839</v>
       </c>
       <c r="F3">
-        <v>-6.647555702058463</v>
+        <v>-8.544305099946431</v>
       </c>
       <c r="G3">
-        <v>-5.362461574727373</v>
+        <v>-5.082431877087927</v>
       </c>
       <c r="H3">
-        <v>-4.884189677426858</v>
+        <v>-4.426155284788645</v>
       </c>
       <c r="I3">
-        <v>2.384659034588467</v>
+        <v>1.999144600078344</v>
       </c>
       <c r="J3">
-        <v>-12.88050038588976</v>
+        <v>-14.66789667744244</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.76165122901603</v>
+        <v>3.099931797441746</v>
       </c>
       <c r="C4">
-        <v>3.40640689518978</v>
+        <v>3.306794187443672</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.347447266827709</v>
+        <v>-2.765176817227718</v>
       </c>
       <c r="F4">
-        <v>-3.215037831843643</v>
+        <v>-2.841274624448338</v>
       </c>
       <c r="G4">
-        <v>-1.702284799036547</v>
+        <v>-1.44395413680333</v>
       </c>
       <c r="H4">
-        <v>-0.6412078297212331</v>
+        <v>-0.5592419105408015</v>
       </c>
       <c r="I4">
-        <v>3.747088253234912</v>
+        <v>3.373381154290935</v>
       </c>
       <c r="J4">
-        <v>-10.70168213601469</v>
+        <v>-13.02068646215465</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.381020963601494</v>
+        <v>3.502386793273629</v>
       </c>
       <c r="C5">
-        <v>4.273249685475306</v>
+        <v>3.681005498625839</v>
       </c>
       <c r="D5">
-        <v>3.347447266827709</v>
+        <v>2.765176817227718</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6108587282065929</v>
+        <v>0.5604257539434346</v>
       </c>
       <c r="G5">
-        <v>-0.1982410004036945</v>
+        <v>-0.162963631956425</v>
       </c>
       <c r="H5">
-        <v>0.9158058446349093</v>
+        <v>0.7764747264221197</v>
       </c>
       <c r="I5">
-        <v>5.032141807299748</v>
+        <v>4.008280707575426</v>
       </c>
       <c r="J5">
-        <v>-7.025317347934847</v>
+        <v>-7.942848122832215</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.15322470315918</v>
+        <v>8.947360284054245</v>
       </c>
       <c r="C6">
-        <v>6.647555702058463</v>
+        <v>8.544305099946431</v>
       </c>
       <c r="D6">
-        <v>3.215037831843643</v>
+        <v>2.841274624448338</v>
       </c>
       <c r="E6">
-        <v>-0.6108587282065929</v>
+        <v>-0.5604257539434346</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.7826335610454924</v>
+        <v>-0.6870106119592574</v>
       </c>
       <c r="H6">
-        <v>0.9068542205204455</v>
+        <v>0.7745701656338183</v>
       </c>
       <c r="I6">
-        <v>5.658107024444307</v>
+        <v>5.556784117266041</v>
       </c>
       <c r="J6">
-        <v>-10.30236120738292</v>
+        <v>-11.64221546713762</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.635128345868443</v>
+        <v>3.476598781546006</v>
       </c>
       <c r="C7">
-        <v>5.362461574727373</v>
+        <v>5.082431877087927</v>
       </c>
       <c r="D7">
-        <v>1.702284799036547</v>
+        <v>1.44395413680333</v>
       </c>
       <c r="E7">
-        <v>0.1982410004036945</v>
+        <v>0.162963631956425</v>
       </c>
       <c r="F7">
-        <v>0.7826335610454924</v>
+        <v>0.6870106119592574</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.637760666044483</v>
+        <v>2.724558494569874</v>
       </c>
       <c r="I7">
-        <v>5.450448802356439</v>
+        <v>5.512526379803321</v>
       </c>
       <c r="J7">
-        <v>-6.739865926253214</v>
+        <v>-5.163178380537666</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.834951183195449</v>
+        <v>2.672733267079237</v>
       </c>
       <c r="C8">
-        <v>4.884189677426858</v>
+        <v>4.426155284788645</v>
       </c>
       <c r="D8">
-        <v>0.6412078297212331</v>
+        <v>0.5592419105408015</v>
       </c>
       <c r="E8">
-        <v>-0.9158058446349093</v>
+        <v>-0.7764747264221197</v>
       </c>
       <c r="F8">
-        <v>-0.9068542205204455</v>
+        <v>-0.7745701656338183</v>
       </c>
       <c r="G8">
-        <v>-2.637760666044483</v>
+        <v>-2.724558494569874</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.634374829049757</v>
+        <v>4.847387197376366</v>
       </c>
       <c r="J8">
-        <v>-9.85277001538827</v>
+        <v>-8.231692865866652</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.025726774868389</v>
+        <v>-2.521827826554322</v>
       </c>
       <c r="C9">
-        <v>-2.384659034588467</v>
+        <v>-1.999144600078344</v>
       </c>
       <c r="D9">
-        <v>-3.747088253234912</v>
+        <v>-3.373381154290935</v>
       </c>
       <c r="E9">
-        <v>-5.032141807299748</v>
+        <v>-4.008280707575426</v>
       </c>
       <c r="F9">
-        <v>-5.658107024444307</v>
+        <v>-5.556784117266041</v>
       </c>
       <c r="G9">
-        <v>-5.450448802356439</v>
+        <v>-5.512526379803321</v>
       </c>
       <c r="H9">
-        <v>-4.634374829049757</v>
+        <v>-4.847387197376366</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-10.92046034987016</v>
+        <v>-11.10682590452321</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.49115040982984</v>
+        <v>15.75122974710012</v>
       </c>
       <c r="C10">
-        <v>12.88050038588976</v>
+        <v>14.66789667744244</v>
       </c>
       <c r="D10">
-        <v>10.70168213601469</v>
+        <v>13.02068646215465</v>
       </c>
       <c r="E10">
-        <v>7.025317347934847</v>
+        <v>7.942848122832215</v>
       </c>
       <c r="F10">
-        <v>10.30236120738292</v>
+        <v>11.64221546713762</v>
       </c>
       <c r="G10">
-        <v>6.739865926253214</v>
+        <v>5.163178380537666</v>
       </c>
       <c r="H10">
-        <v>9.85277001538827</v>
+        <v>8.231692865866652</v>
       </c>
       <c r="I10">
-        <v>10.92046034987016</v>
+        <v>11.10682590452321</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1437,42 +1437,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
-        <v>0.6457990525229709</v>
+        <v>0.6187332405688017</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>0.6187332405688017</v>
+        <v>0.6457990525229709</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>62.5</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0.6620003676271295</v>
@@ -1497,42 +1497,42 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.6949129175544786</v>
+        <v>0.7349531908852894</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>12.5</v>
       </c>
       <c r="F6">
-        <v>0.7349531908852894</v>
+        <v>0.6949129175544786</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>12.5</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02242931537559456</v>
+        <v>0.03891561836169388</v>
       </c>
       <c r="D2">
-        <v>0.00783345273120517</v>
+        <v>0.005296014874859534</v>
       </c>
       <c r="E2">
-        <v>0.003518479473069824</v>
+        <v>0.0009276767978150247</v>
       </c>
       <c r="F2">
-        <v>3.636635927950493E-07</v>
+        <v>2.499238593856035E-10</v>
       </c>
       <c r="G2">
-        <v>0.003703522545972948</v>
+        <v>1.122301036105E-06</v>
       </c>
       <c r="H2">
-        <v>0.01820238026848409</v>
+        <v>6.181418276351991E-06</v>
       </c>
       <c r="I2">
-        <v>0.02441417733121787</v>
+        <v>0.09318686044294933</v>
       </c>
       <c r="J2">
-        <v>2.661584286300922E-10</v>
+        <v>1.291460965990865E-05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02242931537559456</v>
+        <v>0.03891561836169388</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.005191625890059726</v>
+        <v>0.001403313690236052</v>
       </c>
       <c r="E3">
-        <v>0.002468448345302354</v>
+        <v>0.0005471675961825628</v>
       </c>
       <c r="F3">
-        <v>6.31289682306857E-07</v>
+        <v>7.361177184916912E-06</v>
       </c>
       <c r="G3">
-        <v>0.0001670144785241856</v>
+        <v>5.587574847254473E-11</v>
       </c>
       <c r="H3">
-        <v>0.0005751431850828936</v>
+        <v>2.522426711948356E-13</v>
       </c>
       <c r="I3">
-        <v>0.06538983234925433</v>
+        <v>0.6704530462374714</v>
       </c>
       <c r="J3">
-        <v>6.841640587396114E-10</v>
+        <v>5.345322490191151E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00783345273120517</v>
+        <v>0.005296014874859534</v>
       </c>
       <c r="C4">
-        <v>0.005191625890059726</v>
+        <v>0.001403313690236052</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01518547225210143</v>
+        <v>0.000137488355635984</v>
       </c>
       <c r="F4">
-        <v>0.0130729465972379</v>
+        <v>0.00996607117345305</v>
       </c>
       <c r="G4">
-        <v>0.1707566629146371</v>
+        <v>0.004236009369734672</v>
       </c>
       <c r="H4">
-        <v>0.5848326098805563</v>
+        <v>0.03057750723537378</v>
       </c>
       <c r="I4">
-        <v>0.004547430365912764</v>
+        <v>0.004112036834287291</v>
       </c>
       <c r="J4">
-        <v>3.257989211746803E-09</v>
+        <v>0.0005131786712233577</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003518479473069824</v>
+        <v>0.0009276767978150247</v>
       </c>
       <c r="C5">
-        <v>0.002468448345302354</v>
+        <v>0.0005471675961825628</v>
       </c>
       <c r="D5">
-        <v>0.01518547225210143</v>
+        <v>0.000137488355635984</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5840467020102458</v>
+        <v>0.07830083494488571</v>
       </c>
       <c r="G5">
-        <v>0.8728760011712222</v>
+        <v>0.02199378418744913</v>
       </c>
       <c r="H5">
-        <v>0.4503888688957607</v>
+        <v>0.1428160174209498</v>
       </c>
       <c r="I5">
-        <v>0.001294854920740995</v>
+        <v>0.001565026953176396</v>
       </c>
       <c r="J5">
-        <v>1.488508269975597E-06</v>
+        <v>0.0257668144888461</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.636635927950493E-07</v>
+        <v>2.499238593856035E-10</v>
       </c>
       <c r="C6">
-        <v>6.31289682306857E-07</v>
+        <v>7.361177184916912E-06</v>
       </c>
       <c r="D6">
-        <v>0.0130729465972379</v>
+        <v>0.00996607117345305</v>
       </c>
       <c r="E6">
-        <v>0.5840467020102458</v>
+        <v>0.07830083494488571</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.503298118186376</v>
+        <v>0.08582691601397352</v>
       </c>
       <c r="H6">
-        <v>0.451477748550682</v>
+        <v>0.7819033490932288</v>
       </c>
       <c r="I6">
-        <v>7.069170197704366E-05</v>
+        <v>0.0001384554121359738</v>
       </c>
       <c r="J6">
-        <v>1.378089287129569E-08</v>
+        <v>0.7166805371311264</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.003703522545972948</v>
+        <v>1.122301036105E-06</v>
       </c>
       <c r="C7">
-        <v>0.0001670144785241856</v>
+        <v>5.587574847254473E-11</v>
       </c>
       <c r="D7">
-        <v>0.1707566629146371</v>
+        <v>0.004236009369734672</v>
       </c>
       <c r="E7">
-        <v>0.8728760011712222</v>
+        <v>0.02199378418744913</v>
       </c>
       <c r="F7">
-        <v>0.503298118186376</v>
+        <v>0.08582691601397352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.01644583639629782</v>
+        <v>0.009384405049621236</v>
       </c>
       <c r="I7">
-        <v>7.649788151153913E-05</v>
+        <v>1.008082273212807E-07</v>
       </c>
       <c r="J7">
-        <v>0.0001439719312719134</v>
+        <v>0.1078456380575588</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01820238026848409</v>
+        <v>6.181418276351991E-06</v>
       </c>
       <c r="C8">
-        <v>0.0005751431850828936</v>
+        <v>2.522426711948356E-13</v>
       </c>
       <c r="D8">
-        <v>0.5848326098805563</v>
+        <v>0.03057750723537378</v>
       </c>
       <c r="E8">
-        <v>0.4503888688957607</v>
+        <v>0.1428160174209498</v>
       </c>
       <c r="F8">
-        <v>0.451477748550682</v>
+        <v>0.7819033490932288</v>
       </c>
       <c r="G8">
-        <v>0.01644583639629782</v>
+        <v>0.009384405049621236</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.0002585239466481593</v>
+        <v>1.548990407052031E-07</v>
       </c>
       <c r="J8">
-        <v>9.806944250012606E-07</v>
+        <v>0.6146657233162469</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02441417733121787</v>
+        <v>0.09318686044294933</v>
       </c>
       <c r="C9">
-        <v>0.06538983234925433</v>
+        <v>0.6704530462374714</v>
       </c>
       <c r="D9">
-        <v>0.004547430365912764</v>
+        <v>0.004112036834287291</v>
       </c>
       <c r="E9">
-        <v>0.001294854920740995</v>
+        <v>0.001565026953176396</v>
       </c>
       <c r="F9">
-        <v>7.069170197704366E-05</v>
+        <v>0.0001384554121359738</v>
       </c>
       <c r="G9">
-        <v>7.649788151153913E-05</v>
+        <v>1.008082273212807E-07</v>
       </c>
       <c r="H9">
-        <v>0.0002585239466481593</v>
+        <v>1.548990407052031E-07</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>2.50769631726655E-08</v>
+        <v>0.000362048535480497</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.661584286300922E-10</v>
+        <v>1.291460965990865E-05</v>
       </c>
       <c r="C10">
-        <v>6.841640587396114E-10</v>
+        <v>5.345322490191151E-05</v>
       </c>
       <c r="D10">
-        <v>3.257989211746803E-09</v>
+        <v>0.0005131786712233577</v>
       </c>
       <c r="E10">
-        <v>1.488508269975597E-06</v>
+        <v>0.0257668144888461</v>
       </c>
       <c r="F10">
-        <v>1.378089287129569E-08</v>
+        <v>0.7166805371311264</v>
       </c>
       <c r="G10">
-        <v>0.0001439719312719134</v>
+        <v>0.1078456380575588</v>
       </c>
       <c r="H10">
-        <v>9.806944250012606E-07</v>
+        <v>0.6146657233162469</v>
       </c>
       <c r="I10">
-        <v>2.50769631726655E-08</v>
+        <v>0.000362048535480497</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.565571627230308</v>
+        <v>2.196158690510437</v>
       </c>
       <c r="D2">
-        <v>-3.099931797441746</v>
+        <v>-3.094233365020388</v>
       </c>
       <c r="E2">
-        <v>-3.502386793273629</v>
+        <v>-3.823060502040548</v>
       </c>
       <c r="F2">
-        <v>-8.947360284054245</v>
+        <v>-10.89096489443606</v>
       </c>
       <c r="G2">
-        <v>-3.476598781546006</v>
+        <v>-6.640135893223412</v>
       </c>
       <c r="H2">
-        <v>-2.672733267079237</v>
+        <v>-5.898256156834395</v>
       </c>
       <c r="I2">
-        <v>2.521827826554322</v>
+        <v>1.754945852009095</v>
       </c>
       <c r="J2">
-        <v>-15.75122974710012</v>
+        <v>-5.58590500003357</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.565571627230308</v>
+        <v>-2.196158690510437</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.306794187443672</v>
+        <v>-3.652158698589142</v>
       </c>
       <c r="E3">
-        <v>-3.681005498625839</v>
+        <v>-4.039947668014779</v>
       </c>
       <c r="F3">
-        <v>-8.544305099946431</v>
+        <v>-5.823820621360804</v>
       </c>
       <c r="G3">
-        <v>-5.082431877087927</v>
+        <v>-11.7887179025521</v>
       </c>
       <c r="H3">
-        <v>-4.426155284788645</v>
+        <v>-15.50375957497796</v>
       </c>
       <c r="I3">
-        <v>1.999144600078344</v>
+        <v>0.4312917320472434</v>
       </c>
       <c r="J3">
-        <v>-14.66789667744244</v>
+        <v>-4.994015067805301</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.099931797441746</v>
+        <v>3.094233365020388</v>
       </c>
       <c r="C4">
-        <v>3.306794187443672</v>
+        <v>3.652158698589142</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.765176817227718</v>
+        <v>-4.605504180109905</v>
       </c>
       <c r="F4">
-        <v>-2.841274624448338</v>
+        <v>-2.820249533628854</v>
       </c>
       <c r="G4">
-        <v>-1.44395413680333</v>
+        <v>-3.189451694883651</v>
       </c>
       <c r="H4">
-        <v>-0.5592419105408015</v>
+        <v>-2.311165865273574</v>
       </c>
       <c r="I4">
-        <v>3.373381154290935</v>
+        <v>3.202063629118327</v>
       </c>
       <c r="J4">
-        <v>-13.02068646215465</v>
+        <v>-4.066237620254439</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.502386793273629</v>
+        <v>3.823060502040548</v>
       </c>
       <c r="C5">
-        <v>3.681005498625839</v>
+        <v>4.039947668014779</v>
       </c>
       <c r="D5">
-        <v>2.765176817227718</v>
+        <v>4.605504180109905</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5604257539434346</v>
+        <v>-1.846607128992068</v>
       </c>
       <c r="G5">
-        <v>-0.162963631956425</v>
+        <v>-2.464722946061332</v>
       </c>
       <c r="H5">
-        <v>0.7764747264221197</v>
+        <v>-1.519750455246014</v>
       </c>
       <c r="I5">
-        <v>4.008280707575426</v>
+        <v>3.606954282629111</v>
       </c>
       <c r="J5">
-        <v>-7.942848122832215</v>
+        <v>-2.391418989107025</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.947360284054245</v>
+        <v>10.89096489443606</v>
       </c>
       <c r="C6">
-        <v>8.544305099946431</v>
+        <v>5.823820621360804</v>
       </c>
       <c r="D6">
-        <v>2.841274624448338</v>
+        <v>2.820249533628854</v>
       </c>
       <c r="E6">
-        <v>-0.5604257539434346</v>
+        <v>1.846607128992068</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.6870106119592574</v>
+        <v>-1.798545395606255</v>
       </c>
       <c r="H6">
-        <v>0.7745701656338183</v>
+        <v>-0.2802509308042918</v>
       </c>
       <c r="I6">
-        <v>5.556784117266041</v>
+        <v>4.60263108169825</v>
       </c>
       <c r="J6">
-        <v>-11.64221546713762</v>
+        <v>0.3676051159276149</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.476598781546006</v>
+        <v>6.640135893223412</v>
       </c>
       <c r="C7">
-        <v>5.082431877087927</v>
+        <v>11.7887179025521</v>
       </c>
       <c r="D7">
-        <v>1.44395413680333</v>
+        <v>3.189451694883651</v>
       </c>
       <c r="E7">
-        <v>0.162963631956425</v>
+        <v>2.464722946061332</v>
       </c>
       <c r="F7">
-        <v>0.6870106119592574</v>
+        <v>1.798545395606255</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.724558494569874</v>
+        <v>2.846635382919086</v>
       </c>
       <c r="I7">
-        <v>5.512526379803321</v>
+        <v>7.744230071298506</v>
       </c>
       <c r="J7">
-        <v>-5.163178380537666</v>
+        <v>1.676242791828725</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.672733267079237</v>
+        <v>5.898256156834395</v>
       </c>
       <c r="C8">
-        <v>4.426155284788645</v>
+        <v>15.50375957497796</v>
       </c>
       <c r="D8">
-        <v>0.5592419105408015</v>
+        <v>2.311165865273574</v>
       </c>
       <c r="E8">
-        <v>-0.7764747264221197</v>
+        <v>1.519750455246014</v>
       </c>
       <c r="F8">
-        <v>-0.7745701656338183</v>
+        <v>0.2802509308042918</v>
       </c>
       <c r="G8">
-        <v>-2.724558494569874</v>
+        <v>-2.846635382919086</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.847387197376366</v>
+        <v>7.541888403715129</v>
       </c>
       <c r="J8">
-        <v>-8.231692865866652</v>
+        <v>0.510673989815598</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.521827826554322</v>
+        <v>-1.754945852009095</v>
       </c>
       <c r="C9">
-        <v>-1.999144600078344</v>
+        <v>-0.4312917320472434</v>
       </c>
       <c r="D9">
-        <v>-3.373381154290935</v>
+        <v>-3.202063629118327</v>
       </c>
       <c r="E9">
-        <v>-4.008280707575426</v>
+        <v>-3.606954282629111</v>
       </c>
       <c r="F9">
-        <v>-5.556784117266041</v>
+        <v>-4.60263108169825</v>
       </c>
       <c r="G9">
-        <v>-5.512526379803321</v>
+        <v>-7.744230071298506</v>
       </c>
       <c r="H9">
-        <v>-4.847387197376366</v>
+        <v>-7.541888403715129</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-11.10682590452321</v>
+        <v>-4.209113825748087</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.75122974710012</v>
+        <v>5.58590500003357</v>
       </c>
       <c r="C10">
-        <v>14.66789667744244</v>
+        <v>4.994015067805301</v>
       </c>
       <c r="D10">
-        <v>13.02068646215465</v>
+        <v>4.066237620254439</v>
       </c>
       <c r="E10">
-        <v>7.942848122832215</v>
+        <v>2.391418989107025</v>
       </c>
       <c r="F10">
-        <v>11.64221546713762</v>
+        <v>-0.3676051159276149</v>
       </c>
       <c r="G10">
-        <v>5.163178380537666</v>
+        <v>-1.676242791828725</v>
       </c>
       <c r="H10">
-        <v>8.231692865866652</v>
+        <v>-0.510673989815598</v>
       </c>
       <c r="I10">
-        <v>11.10682590452321</v>
+        <v>4.209113825748087</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1452,7 +1452,7 @@
         <v>62.5</v>
       </c>
       <c r="F2">
-        <v>0.6187332405688017</v>
+        <v>0.6257982614985358</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,79 +1460,79 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
-        <v>0.6457990525229709</v>
+        <v>0.6069574066118956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>0.6620003676271295</v>
+        <v>0.6035235594163624</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>0.7349531908852894</v>
+        <v>0.6494160910421727</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6949129175544786</v>
+        <v>0.658292690354643</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,19 +1540,19 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7242411280671145</v>
+        <v>0.6768286553107764</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,19 +1560,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7414558852064858</v>
+        <v>0.7019304081927639</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7093707955505162</v>
+        <v>0.6803384920575406</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9052714559783743</v>
+        <v>0.6730176862250314</v>
       </c>
     </row>
   </sheetData>
